--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sébastien\Dropbox\Seb\SGDF\outilssgdf\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FBD393-8337-4B89-BADE-E0A3B76B91D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE89D90D-C014-41B1-A2F9-2FB3FD168AED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" tabRatio="472" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
@@ -19,6 +19,10 @@
     <sheet name="Général" sheetId="6" r:id="rId4"/>
     <sheet name="Aide" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quotas!$A$2:$C$2</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -770,6 +774,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G2" xr:uid="{D4EDAE86-620F-46FD-B161-4BC04F477D7E}"/>
   <conditionalFormatting sqref="F2:F1048576">
     <cfRule type="cellIs" dxfId="7" priority="37" stopIfTrue="1" operator="between">
       <formula>240</formula>
@@ -820,7 +825,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="A1:D1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,6 +883,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:C2" xr:uid="{7C9176FB-3B3C-42B3-948F-D64D3835BF2E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -887,9 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5C4104-3EAE-4F48-A5B4-34DC074AB0B8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -938,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="15">
-        <v>43420</v>
+        <v>43431</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sébastien\Dropbox\Seb\SGDF\outilssgdf\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE89D90D-C014-41B1-A2F9-2FB3FD168AED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219C4C36-C30A-4123-881E-FA4E77D4F191}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" tabRatio="472" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <sheet name="Aide" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quotas!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quotas!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -774,7 +774,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G2" xr:uid="{D4EDAE86-620F-46FD-B161-4BC04F477D7E}"/>
+  <autoFilter ref="A1:G1" xr:uid="{2757BFB1-85A6-4A2B-B281-221FE42F96ED}"/>
   <conditionalFormatting sqref="F2:F1048576">
     <cfRule type="cellIs" dxfId="7" priority="37" stopIfTrue="1" operator="between">
       <formula>240</formula>
@@ -883,7 +883,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C2" xr:uid="{7C9176FB-3B3C-42B3-948F-D64D3835BF2E}"/>
+  <autoFilter ref="A1:B1" xr:uid="{9D92C357-751C-40DA-9543-FA6FCBCA64A2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -942,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="15">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sébastien\Dropbox\Seb\SGDF\outilssgdf\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219C4C36-C30A-4123-881E-FA4E77D4F191}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390168C6-FD91-4881-8E70-18CA7279319C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" tabRatio="472" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sébastien\Dropbox\Seb\SGDF\outilssgdf\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\outilssgdf\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390168C6-FD91-4881-8E70-18CA7279319C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A35D1-B51E-4902-83C4-76255184AE18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" tabRatio="472" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <sheet name="Aide" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quotas!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quotas!$A$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>&lt;/jt:forEach&gt;</t>
   </si>
@@ -145,13 +145,13 @@
     <t>Age camp OK ?</t>
   </si>
   <si>
-    <t>${adherent.ageokcamp}</t>
-  </si>
-  <si>
     <t>Age au camp</t>
   </si>
   <si>
     <t>${adherent.agecamp}</t>
+  </si>
+  <si>
+    <t>${adherent.ageokcamp}&lt;/jt:forEach&gt;</t>
   </si>
 </sst>
 </file>
@@ -243,11 +243,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -693,88 +690,85 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3" customWidth="1"/>
-    <col min="8" max="9" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{2757BFB1-85A6-4A2B-B281-221FE42F96ED}"/>
+  <autoFilter ref="A1:I2" xr:uid="{50C0CF3F-2DAB-4597-855F-3644F39C68A4}"/>
   <conditionalFormatting sqref="F2:F1048576">
     <cfRule type="cellIs" dxfId="7" priority="37" stopIfTrue="1" operator="between">
       <formula>240</formula>
@@ -832,58 +826,58 @@
   <cols>
     <col min="1" max="1" width="91.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="M2" s="2" t="s">
+      <c r="E2" s="8"/>
+      <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{9D92C357-751C-40DA-9543-FA6FCBCA64A2}"/>
+  <autoFilter ref="A1:D2" xr:uid="{6AC6ED21-E2EE-4015-ADB3-FFAFD9020971}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -902,18 +896,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -938,15 +932,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15">
-        <v>43432</v>
+      <c r="B1" s="14">
+        <v>43434</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -954,7 +948,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
@@ -982,14 +976,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="15"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\outilssgdf\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A35D1-B51E-4902-83C4-76255184AE18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C32DDB-DA7D-4A3B-9950-A12E1B03FC16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" tabRatio="472" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="1530" yWindow="495" windowWidth="22905" windowHeight="13815" tabRatio="472" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Adhérents" sheetId="1" r:id="rId1"/>
@@ -694,7 +694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
     <col min="8" max="9" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\outilssgdf\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C32DDB-DA7D-4A3B-9950-A12E1B03FC16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB93CA0-C800-4EC0-AA06-CC6D19D7B2A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="495" windowWidth="22905" windowHeight="13815" tabRatio="472" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Adhérents" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Aide" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quotas!$A$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>&lt;/jt:forEach&gt;</t>
   </si>
@@ -151,7 +151,19 @@
     <t>${adherent.agecamp}</t>
   </si>
   <si>
-    <t>${adherent.ageokcamp}&lt;/jt:forEach&gt;</t>
+    <t>${adherent.ageokcamp}</t>
+  </si>
+  <si>
+    <t>Branche</t>
+  </si>
+  <si>
+    <t>${adherent.branche}</t>
+  </si>
+  <si>
+    <t>Branche N+1</t>
+  </si>
+  <si>
+    <t>${adherent.brancheanneeprochaine}</t>
   </si>
 </sst>
 </file>
@@ -243,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -285,6 +297,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -690,11 +705,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,12 +719,14 @@
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="57.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="11" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -726,19 +743,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -754,22 +777,31 @@
       <c r="E2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2" xr:uid="{50C0CF3F-2DAB-4597-855F-3644F39C68A4}"/>
-  <conditionalFormatting sqref="F2:F1048576">
+  <autoFilter ref="A1:K2" xr:uid="{50C0CF3F-2DAB-4597-855F-3644F39C68A4}"/>
+  <conditionalFormatting sqref="H2:H1048576">
     <cfRule type="cellIs" dxfId="7" priority="37" stopIfTrue="1" operator="between">
       <formula>240</formula>
       <formula>240</formula>
@@ -795,12 +827,12 @@
       <formula>219</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H1048576">
+  <conditionalFormatting sqref="J2:J1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I1048576">
+  <conditionalFormatting sqref="K2:K1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
@@ -819,7 +851,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\outilssgdf\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB93CA0-C800-4EC0-AA06-CC6D19D7B2A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D289B40-CCEB-417A-ADF8-0FE666E08C27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="1" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Adhérents" sheetId="1" r:id="rId1"/>
-    <sheet name="Quotas" sheetId="2" r:id="rId2"/>
+    <sheet name="Effectifs" sheetId="2" r:id="rId2"/>
     <sheet name="Global" sheetId="5" r:id="rId3"/>
     <sheet name="Général" sheetId="6" r:id="rId4"/>
     <sheet name="Aide" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$K$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quotas!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Effectifs!$A$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>&lt;/jt:forEach&gt;</t>
   </si>
@@ -82,19 +82,10 @@
     <t>${global.marins}</t>
   </si>
   <si>
-    <t>&lt;/jt:forEach&gt;&lt;/jt:agg&gt;</t>
-  </si>
-  <si>
     <t>Marin</t>
   </si>
   <si>
     <t>Fonction</t>
-  </si>
-  <si>
-    <t>&lt;jt:agg items="${unites}" aggs="Sum(chefs);Sum(qualifieannee)" valuesVar="results"&gt;&lt;jt:forEach items="${results}" var="unite"&gt;Qualifiés à l'année</t>
-  </si>
-  <si>
-    <t>${unite.getAggregateValue(aggs[1])}</t>
   </si>
   <si>
     <t>Code Unité</t>
@@ -170,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,13 +189,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -255,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,7 +249,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,7 +266,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -707,9 +690,9 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,74 +709,74 @@
     <col min="10" max="11" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>34</v>
+      <c r="I1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
@@ -847,11 +830,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,30 +843,30 @@
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -891,21 +874,9 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
       <c r="M2" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -928,18 +899,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>33</v>
+      <c r="A1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -967,7 +938,7 @@
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="13">
         <v>43434</v>
       </c>
     </row>
@@ -981,10 +952,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +980,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="14"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\outilssgdf\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D289B40-CCEB-417A-ADF8-0FE666E08C27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734C77D5-1DA1-42EA-854B-DB08814F92CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="1" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Adhérents" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Aide" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$M$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Effectifs!$A$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>&lt;/jt:forEach&gt;</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>${adherent.brancheanneeprochaine}</t>
+  </si>
+  <si>
+    <t>Date de naissance</t>
+  </si>
+  <si>
+    <t>${adherent.datedenaissance}</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>${adherent.age}</t>
   </si>
 </sst>
 </file>
@@ -688,11 +700,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,16 +712,17 @@
     <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.85546875" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="11" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="57.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2" customWidth="1"/>
+    <col min="12" max="13" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -720,31 +733,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -754,37 +773,43 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K2" xr:uid="{50C0CF3F-2DAB-4597-855F-3644F39C68A4}"/>
-  <conditionalFormatting sqref="H2:H1048576">
+  <autoFilter ref="A1:M2" xr:uid="{50C0CF3F-2DAB-4597-855F-3644F39C68A4}"/>
+  <conditionalFormatting sqref="J2:J1048576">
     <cfRule type="cellIs" dxfId="7" priority="37" stopIfTrue="1" operator="between">
       <formula>240</formula>
       <formula>240</formula>
@@ -810,12 +835,12 @@
       <formula>219</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1048576">
+  <conditionalFormatting sqref="L2:L1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K1048576">
+  <conditionalFormatting sqref="M2:M1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
@@ -832,7 +857,7 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A4:XFD5"/>
     </sheetView>

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\outilssgdf\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734C77D5-1DA1-42EA-854B-DB08814F92CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CAF8BE-0F31-4045-B962-8D1A9BA3A131}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="391" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Adhérents" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Aide" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$N$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Effectifs!$A$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>&lt;/jt:forEach&gt;</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>${adherent.age}</t>
+  </si>
+  <si>
+    <t>Droit à l'image OK ?</t>
+  </si>
+  <si>
+    <t>${adherent.droitimageok}</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,107 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF007E39"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -700,7 +806,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -720,9 +826,11 @@
     <col min="10" max="10" width="15.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="2" customWidth="1"/>
     <col min="12" max="13" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -762,8 +870,11 @@
       <c r="M1" s="12" t="s">
         <v>31</v>
       </c>
+      <c r="N1" s="12" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -803,45 +914,53 @@
       <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M2" xr:uid="{50C0CF3F-2DAB-4597-855F-3644F39C68A4}"/>
+  <autoFilter ref="A1:N2" xr:uid="{1F72967C-D7F3-41E2-9BA2-82E68CFB32EC}"/>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="cellIs" dxfId="7" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="38" stopIfTrue="1" operator="between">
       <formula>240</formula>
       <formula>240</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="38" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="39" stopIfTrue="1" operator="between">
       <formula>270</formula>
       <formula>271</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="39" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="40" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="41" stopIfTrue="1" operator="between">
       <formula>230</formula>
       <formula>239</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="42" stopIfTrue="1" operator="between">
       <formula>220</formula>
       <formula>229</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="42" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="43" stopIfTrue="1" operator="between">
       <formula>210</formula>
       <formula>219</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N1048576">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -859,7 +978,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A4:XFD5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\outilssgdf\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CAF8BE-0F31-4045-B962-8D1A9BA3A131}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A657359-CD99-4EC6-817D-B134C132C137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="391" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="1650" yWindow="1440" windowWidth="27150" windowHeight="14160" tabRatio="391" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Adhérents" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Aide" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$P$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Effectifs!$A$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>&lt;/jt:forEach&gt;</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>${adherent.droitimageok}</t>
+  </si>
+  <si>
+    <t>Code Groupe</t>
+  </si>
+  <si>
+    <t>Code Structure</t>
+  </si>
+  <si>
+    <t>${adherent.codegroupe}</t>
+  </si>
+  <si>
+    <t>${adherent.codestructure}</t>
   </si>
 </sst>
 </file>
@@ -257,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -303,101 +315,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007E39"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -806,7 +734,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -821,16 +749,18 @@
     <col min="4" max="4" width="29.42578125" style="2" customWidth="1"/>
     <col min="5" max="6" width="12.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="57.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2" customWidth="1"/>
-    <col min="12" max="13" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2" customWidth="1"/>
+    <col min="14" max="15" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -852,29 +782,35 @@
       <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -896,71 +832,77 @@
       <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N2" xr:uid="{1F72967C-D7F3-41E2-9BA2-82E68CFB32EC}"/>
-  <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="cellIs" dxfId="17" priority="38" stopIfTrue="1" operator="between">
+  <autoFilter ref="A1:P2" xr:uid="{1F72967C-D7F3-41E2-9BA2-82E68CFB32EC}"/>
+  <conditionalFormatting sqref="L2:L1048576">
+    <cfRule type="cellIs" dxfId="8" priority="38" stopIfTrue="1" operator="between">
       <formula>240</formula>
       <formula>240</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="39" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="39" stopIfTrue="1" operator="between">
       <formula>270</formula>
       <formula>271</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="40" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="41" stopIfTrue="1" operator="between">
       <formula>230</formula>
       <formula>239</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="42" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="42" stopIfTrue="1" operator="between">
       <formula>220</formula>
       <formula>229</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="43" stopIfTrue="1" operator="between">
       <formula>210</formula>
       <formula>219</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="O2:O1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="P2:P1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\outilssgdf\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A657359-CD99-4EC6-817D-B134C132C137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8611E330-F5FD-46FD-93F2-3F5F1836B03C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1440" windowWidth="27150" windowHeight="14160" tabRatio="391" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="1395" yWindow="840" windowWidth="27150" windowHeight="14160" tabRatio="391" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Adhérents" sheetId="1" r:id="rId1"/>
     <sheet name="Effectifs" sheetId="2" r:id="rId2"/>
-    <sheet name="Global" sheetId="5" r:id="rId3"/>
-    <sheet name="Général" sheetId="6" r:id="rId4"/>
-    <sheet name="Aide" sheetId="4" r:id="rId5"/>
+    <sheet name="Alertes" sheetId="7" r:id="rId3"/>
+    <sheet name="Global" sheetId="5" r:id="rId4"/>
+    <sheet name="Général" sheetId="6" r:id="rId5"/>
+    <sheet name="Aide" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$P$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Effectifs!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>&lt;/jt:forEach&gt;</t>
   </si>
@@ -185,6 +189,42 @@
   </si>
   <si>
     <t>${adherent.codestructure}</t>
+  </si>
+  <si>
+    <t>Sévérité</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Erreur</t>
+  </si>
+  <si>
+    <t>&lt;jt:forEach items="${alertes}" var="alerte" orderBy="severite;type"&gt;${alerte.adherent.code}</t>
+  </si>
+  <si>
+    <t>${alerte.adherent.unite}</t>
+  </si>
+  <si>
+    <t>${alerte.adherent.codegroupe}</t>
+  </si>
+  <si>
+    <t>${alerte.adherent.codestructure}</t>
+  </si>
+  <si>
+    <t>${alerte.adherent.nom}</t>
+  </si>
+  <si>
+    <t>${alerte.adherent.prenom}</t>
+  </si>
+  <si>
+    <t>${alerte.severite}</t>
+  </si>
+  <si>
+    <t>${alerte.type}</t>
+  </si>
+  <si>
+    <t>${alerte.message}</t>
   </si>
 </sst>
 </file>
@@ -760,7 +800,7 @@
     <col min="17" max="17" width="18.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -973,6 +1013,96 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7174CF0-DD7B-434D-8E9C-34A2F79E3C5F}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="86.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5C4104-3EAE-4F48-A5B4-34DC074AB0B8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1005,7 +1135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831EBE71-927E-45DB-B6B5-3EB816C571F7}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -1049,7 +1179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FF42C4-E612-4A2B-8582-F0FFD086172F}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\outilssgdf\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8611E330-F5FD-46FD-93F2-3F5F1836B03C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58FFDDE-EC37-429E-B0FB-3B71304374D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="840" windowWidth="27150" windowHeight="14160" tabRatio="391" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="390" yWindow="450" windowWidth="27150" windowHeight="14160" tabRatio="391" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Adhérents" sheetId="1" r:id="rId1"/>
@@ -200,9 +200,6 @@
     <t>Erreur</t>
   </si>
   <si>
-    <t>&lt;jt:forEach items="${alertes}" var="alerte" orderBy="severite;type"&gt;${alerte.adherent.code}</t>
-  </si>
-  <si>
     <t>${alerte.adherent.unite}</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>${alerte.message}</t>
+  </si>
+  <si>
+    <t>&lt;jt:forEach items="${alertes_jeunes}" var="alerte" orderBy="severitenum desc;type;adherent.unite"&gt;${alerte.adherent.code}</t>
   </si>
 </sst>
 </file>
@@ -1019,9 +1019,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1031,8 +1029,8 @@
     <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.85546875" customWidth="1"/>
     <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="86.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1067,31 +1065,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>0</v>

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\outilssgdf\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58FFDDE-EC37-429E-B0FB-3B71304374D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A36A79-2383-4B13-A132-D2181687AC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="450" windowWidth="27150" windowHeight="14160" tabRatio="391" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="1080" yWindow="1140" windowWidth="27150" windowHeight="14160" tabRatio="391" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Adhérents" sheetId="1" r:id="rId1"/>
@@ -786,14 +786,15 @@
     <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.85546875" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="57.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="9" style="2" customWidth="1"/>
     <col min="14" max="15" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" style="2" customWidth="1"/>

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\outilssgdf\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A36A79-2383-4B13-A132-D2181687AC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50E8AE8-5C7D-48FF-90AC-DEBF6F1964E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1140" windowWidth="27150" windowHeight="14160" tabRatio="391" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="1305" yWindow="1260" windowWidth="26400" windowHeight="13455" tabRatio="391" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Adhérents" sheetId="1" r:id="rId1"/>
-    <sheet name="Effectifs" sheetId="2" r:id="rId2"/>
-    <sheet name="Alertes" sheetId="7" r:id="rId3"/>
+    <sheet name="Erreurs" sheetId="7" r:id="rId2"/>
+    <sheet name="Effectifs" sheetId="2" r:id="rId3"/>
     <sheet name="Global" sheetId="5" r:id="rId4"/>
     <sheet name="Général" sheetId="6" r:id="rId5"/>
     <sheet name="Aide" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$P$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Effectifs!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Effectifs!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Erreurs!$A$1:$J$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>&lt;/jt:forEach&gt;</t>
   </si>
@@ -221,17 +222,20 @@
     <t>${alerte.type}</t>
   </si>
   <si>
-    <t>${alerte.message}</t>
-  </si>
-  <si>
     <t>&lt;jt:forEach items="${alertes_jeunes}" var="alerte" orderBy="severitenum desc;type;adherent.unite"&gt;${alerte.adherent.code}</t>
+  </si>
+  <si>
+    <t>${alerte.message}&lt;/jt:forEach&gt;</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +270,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -306,10 +318,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -361,11 +376,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Filler1" xfId="1" xr:uid="{CF299C21-B143-458E-AE9E-A0A1BA0CBE68}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -907,43 +946,43 @@
   </sheetData>
   <autoFilter ref="A1:P2" xr:uid="{1F72967C-D7F3-41E2-9BA2-82E68CFB32EC}"/>
   <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="cellIs" dxfId="8" priority="38" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="38" stopIfTrue="1" operator="between">
       <formula>240</formula>
       <formula>240</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="39" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="39" stopIfTrue="1" operator="between">
       <formula>270</formula>
       <formula>271</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="40" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="41" stopIfTrue="1" operator="between">
       <formula>230</formula>
       <formula>239</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="42" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="42" stopIfTrue="1" operator="between">
       <formula>220</formula>
       <formula>229</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="43" stopIfTrue="1" operator="between">
       <formula>210</formula>
       <formula>219</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -953,6 +992,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7174CF0-DD7B-434D-8E9C-34A2F79E3C5F}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="12.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="86.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J2" xr:uid="{5B2E4844-BE2D-4C17-93A0-1FA1B4EB5595}"/>
+  <conditionalFormatting sqref="H2:H200000">
+    <cfRule type="containsText" dxfId="1" priority="2" stopIfTrue="1" operator="containsText" text="HAUTE">
+      <formula>NOT(ISERROR(SEARCH("HAUTE",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H100000">
+    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" operator="containsText" text="MOYENNE">
+      <formula>NOT(ISERROR(SEARCH("MOYENNE",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64634AA-9071-4111-8E53-9AF735BF36D3}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1013,94 +1163,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7174CF0-DD7B-434D-8E9C-34A2F79E3C5F}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="86.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5C4104-3EAE-4F48-A5B4-34DC074AB0B8}">
   <dimension ref="A1:B2"/>
@@ -1154,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="13">
-        <v>43434</v>
+        <v>43741</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/fichiers/conf/modele_adherents.xlsx
+++ b/fichiers/conf/modele_adherents.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\outilssgdf\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50E8AE8-5C7D-48FF-90AC-DEBF6F1964E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC7A331-92E3-480B-897C-973B8707C272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1260" windowWidth="26400" windowHeight="13455" tabRatio="391" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="391" activeTab="1" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Adhérents" sheetId="1" r:id="rId1"/>
-    <sheet name="Erreurs" sheetId="7" r:id="rId2"/>
-    <sheet name="Effectifs" sheetId="2" r:id="rId3"/>
-    <sheet name="Global" sheetId="5" r:id="rId4"/>
-    <sheet name="Général" sheetId="6" r:id="rId5"/>
-    <sheet name="Aide" sheetId="4" r:id="rId6"/>
+    <sheet name="Aide" sheetId="4" r:id="rId1"/>
+    <sheet name="Adhérents" sheetId="1" r:id="rId2"/>
+    <sheet name="Alertes" sheetId="7" r:id="rId3"/>
+    <sheet name="Effectifs" sheetId="2" r:id="rId4"/>
+    <sheet name="Global" sheetId="5" r:id="rId5"/>
+    <sheet name="Général" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhérents!$A$1:$P$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Effectifs!$A$1:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Erreurs!$A$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Adhérents!$A$1:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Alertes!$A$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Effectifs!$A$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>&lt;/jt:forEach&gt;</t>
   </si>
@@ -162,12 +162,6 @@
     <t>${adherent.brancheanneeprochaine}</t>
   </si>
   <si>
-    <t>Date de naissance</t>
-  </si>
-  <si>
-    <t>${adherent.datedenaissance}</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Erreur</t>
-  </si>
-  <si>
     <t>${alerte.adherent.unite}</t>
   </si>
   <si>
@@ -222,20 +213,74 @@
     <t>${alerte.type}</t>
   </si>
   <si>
-    <t>&lt;jt:forEach items="${alertes_jeunes}" var="alerte" orderBy="severitenum desc;type;adherent.unite"&gt;${alerte.adherent.code}</t>
-  </si>
-  <si>
     <t>${alerte.message}&lt;/jt:forEach&gt;</t>
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Alerte</t>
+  </si>
+  <si>
+    <t>Toutes les données sont issues de l'intranet</t>
+  </si>
+  <si>
+    <t>Certaines colonnes contiennent des données brutes, d'autres sont calculés et parfois teintés pour indiquer une point d'attention</t>
+  </si>
+  <si>
+    <t>Voici quelques explications sur les différentes feuilles/colonnes:</t>
+  </si>
+  <si>
+    <t>Aide pour l'analyse des adhérents</t>
+  </si>
+  <si>
+    <t>Cette feuille de calcul contient une analyse adhérents des différentes unités</t>
+  </si>
+  <si>
+    <t>Feuille "Adhérents"</t>
+  </si>
+  <si>
+    <t>Feuille "Erreurs"</t>
+  </si>
+  <si>
+    <t>Feuille "Effectifs"</t>
+  </si>
+  <si>
+    <t>C'est un simple comptage par unité</t>
+  </si>
+  <si>
+    <t>colonne "Age au camp" : Age au 1er juillet</t>
+  </si>
+  <si>
+    <t>Age camp OK : Elle indique si l'adhérent aura l'âge requis au 1er Juillet : 8 ans pour LJ/SG, 11 pour les S/G et 14 ans pour P/C, Cela peut conditionner les activités d'autonomie pendant le camp.</t>
+  </si>
+  <si>
+    <t>Droit à l'image OK : Elle indique si l'adhérent peut apparaitre sur les photos ou des reportages TV par exemple.</t>
+  </si>
+  <si>
+    <t>Indique d'éventuels points d'attention sur certaines incohérences dans l'intranet, problème d'âge…</t>
+  </si>
+  <si>
+    <t>Branche N+1 : Indique la branche de l'unité où sera l'adhérent l'année prochaine.</t>
+  </si>
+  <si>
+    <t>&lt;jt:forEach items="${alertes_jeunes}" var="alerte" orderBy="severitenum desc;adherent.code;adherent.unite"&gt;${alerte.adherent.code}</t>
+  </si>
+  <si>
+    <t>Branche : Indique la branche de l'unité où est l'adhérent.</t>
+  </si>
+  <si>
+    <t>Age année OK : Elle indique si l'adhérent à l'âge requis au 31 décembre : 8 ans pour LJ/SG, 11 pour les S/G et 14 ans pour P/C. Cela peut conditionner les activités d'autonomie au cours de l'année.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +320,37 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -324,7 +400,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -364,9 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,30 +451,85 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Filler1" xfId="1" xr:uid="{CF299C21-B143-458E-AE9E-A0A1BA0CBE68}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -809,11 +937,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FF42C4-E612-4A2B-8582-F0FFD086172F}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="157" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:1" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFA7E18-DDBD-488E-ADD4-8AAE18CE78D2}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -823,24 +1057,23 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="57.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2" customWidth="1"/>
-    <col min="14" max="15" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2" customWidth="1"/>
+    <col min="13" max="14" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -854,43 +1087,40 @@
         <v>39</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -900,89 +1130,86 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P2" xr:uid="{1F72967C-D7F3-41E2-9BA2-82E68CFB32EC}"/>
-  <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="cellIs" dxfId="10" priority="38" stopIfTrue="1" operator="between">
+  <autoFilter ref="A1:O2" xr:uid="{1F72967C-D7F3-41E2-9BA2-82E68CFB32EC}"/>
+  <conditionalFormatting sqref="K2:K1048576">
+    <cfRule type="cellIs" dxfId="14" priority="40" stopIfTrue="1" operator="between">
       <formula>240</formula>
       <formula>240</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="39" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="41" stopIfTrue="1" operator="between">
       <formula>270</formula>
       <formula>271</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="42" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="43" stopIfTrue="1" operator="between">
       <formula>230</formula>
       <formula>239</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="42" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="44" stopIfTrue="1" operator="between">
       <formula>220</formula>
       <formula>229</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="45" stopIfTrue="1" operator="between">
       <formula>210</formula>
       <formula>219</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M1048576">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N2:N1048576">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -991,7 +1218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7174CF0-DD7B-434D-8E9C-34A2F79E3C5F}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -1008,8 +1235,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="57.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
@@ -1031,78 +1258,122 @@
       <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>61</v>
+      <c r="E1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G3" s="18"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J2" xr:uid="{5B2E4844-BE2D-4C17-93A0-1FA1B4EB5595}"/>
-  <conditionalFormatting sqref="H2:H200000">
-    <cfRule type="containsText" dxfId="1" priority="2" stopIfTrue="1" operator="containsText" text="HAUTE">
+  <conditionalFormatting sqref="H3:H200000">
+    <cfRule type="containsText" dxfId="5" priority="4" stopIfTrue="1" operator="containsText" text="BASSE">
+      <formula>NOT(ISERROR(SEARCH("BASSE",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H1000000">
+    <cfRule type="containsText" dxfId="4" priority="1" stopIfTrue="1" operator="containsText" text="BASSE">
+      <formula>NOT(ISERROR(SEARCH("BASSE",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="MOYENNE">
+      <formula>NOT(ISERROR(SEARCH("MOYENNE",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" stopIfTrue="1" operator="containsText" text="HAUTE">
       <formula>NOT(ISERROR(SEARCH("HAUTE",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H100000">
-    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" operator="containsText" text="MOYENNE">
-      <formula>NOT(ISERROR(SEARCH("MOYENNE",H2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" stopIfTrue="1" operator="containsText" text="HAUTE" id="{DAF0FEC4-567C-4C8D-9922-3C0340B96299}">
+            <xm:f>NOT(ISERROR(SEARCH("HAUTE",Adhérents!H3)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H3:H200000</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" stopIfTrue="1" operator="containsText" text="MOYENNE" id="{5558C640-AC39-443C-96DD-3EF988E54F02}">
+            <xm:f>NOT(ISERROR(SEARCH("MOYENNE",Adhérents!H3)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H3:H100000</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64634AA-9071-4111-8E53-9AF735BF36D3}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1163,7 +1434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5C4104-3EAE-4F48-A5B4-34DC074AB0B8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1196,7 +1467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831EBE71-927E-45DB-B6B5-3EB816C571F7}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -1216,7 +1487,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="13">
-        <v>43741</v>
+        <v>43744</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1238,35 +1509,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FF42C4-E612-4A2B-8582-F0FFD086172F}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>